--- a/Code/Results/Cases/Case_1_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_254/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.49829846468908</v>
+        <v>16.71471856507537</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.808300229765683</v>
+        <v>9.445537643816754</v>
       </c>
       <c r="E2">
-        <v>9.706500492677426</v>
+        <v>15.86926128448355</v>
       </c>
       <c r="F2">
-        <v>25.28417424439983</v>
+        <v>37.62063430798291</v>
       </c>
       <c r="G2">
-        <v>2.116269380206329</v>
+        <v>3.684714637473324</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.239985168593763</v>
+        <v>11.77034564934962</v>
       </c>
       <c r="K2">
-        <v>13.24547580978424</v>
+        <v>9.484535063601168</v>
       </c>
       <c r="L2">
-        <v>6.567837421689006</v>
+        <v>8.863847523803175</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.55784959062733</v>
+        <v>28.32498482443728</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.85924730689187</v>
+        <v>16.61125011914996</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.738193085522965</v>
+        <v>9.451859020083331</v>
       </c>
       <c r="E3">
-        <v>9.787765298071159</v>
+        <v>15.91153393480013</v>
       </c>
       <c r="F3">
-        <v>25.18578860824596</v>
+        <v>37.71730575754095</v>
       </c>
       <c r="G3">
-        <v>2.12146764243294</v>
+        <v>3.686687749209808</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.314720632338307</v>
+        <v>11.79721946560308</v>
       </c>
       <c r="K3">
-        <v>12.53002823860291</v>
+        <v>9.229893326226893</v>
       </c>
       <c r="L3">
-        <v>6.216769846825023</v>
+        <v>8.81983037974919</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.57896181653987</v>
+        <v>28.41091671872402</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.45569923343173</v>
+        <v>16.55031555506875</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.696904906019223</v>
+        <v>9.456863924032866</v>
       </c>
       <c r="E4">
-        <v>9.841143094004629</v>
+        <v>15.93922085408454</v>
       </c>
       <c r="F4">
-        <v>25.14510683864364</v>
+        <v>37.78440960724957</v>
       </c>
       <c r="G4">
-        <v>2.124760886202266</v>
+        <v>3.687964181293232</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.362107871740374</v>
+        <v>11.81459967364422</v>
       </c>
       <c r="K4">
-        <v>12.06912786720187</v>
+        <v>9.071013392392608</v>
       </c>
       <c r="L4">
-        <v>5.990805520297434</v>
+        <v>8.793713857152131</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.60625108136838</v>
+        <v>28.46914371865661</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.2886597285765</v>
+        <v>16.52615780228728</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.680531915094876</v>
+        <v>9.459186625627352</v>
       </c>
       <c r="E5">
-        <v>9.863759765614114</v>
+        <v>15.95093962524227</v>
       </c>
       <c r="F5">
-        <v>25.13334566127226</v>
+        <v>37.81369993344803</v>
       </c>
       <c r="G5">
-        <v>2.126128999172073</v>
+        <v>3.688500716914712</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.381801398813515</v>
+        <v>11.82190405258698</v>
       </c>
       <c r="K5">
-        <v>11.8759543398991</v>
+        <v>9.005726698227214</v>
       </c>
       <c r="L5">
-        <v>5.896147526151624</v>
+        <v>8.783307293418313</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.6208434444506</v>
+        <v>28.49424384532512</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.26077352150883</v>
+        <v>16.5221877000414</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.677840791174228</v>
+        <v>9.459589428461683</v>
       </c>
       <c r="E6">
-        <v>9.867567183429459</v>
+        <v>15.95291188186337</v>
       </c>
       <c r="F6">
-        <v>25.13167934338013</v>
+        <v>37.81868094408778</v>
       </c>
       <c r="G6">
-        <v>2.126357765218734</v>
+        <v>3.688590799013074</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.385094783391216</v>
+        <v>11.82313035394534</v>
       </c>
       <c r="K6">
-        <v>11.8435575459627</v>
+        <v>8.994856023019741</v>
       </c>
       <c r="L6">
-        <v>5.880275495234729</v>
+        <v>8.78159375979731</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.62347237033707</v>
+        <v>28.49849451861067</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.45345665601724</v>
+        <v>16.54998700098157</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.696682249975981</v>
+        <v>9.45689410146907</v>
       </c>
       <c r="E7">
-        <v>9.841444622221832</v>
+        <v>15.93937713064186</v>
       </c>
       <c r="F7">
-        <v>25.14492891372398</v>
+        <v>37.78479675610444</v>
       </c>
       <c r="G7">
-        <v>2.124779230681155</v>
+        <v>3.687971350813648</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.362371907844939</v>
+        <v>11.81469728414715</v>
       </c>
       <c r="K7">
-        <v>12.06654421103369</v>
+        <v>9.070134978742562</v>
       </c>
       <c r="L7">
-        <v>5.989539295857242</v>
+        <v>8.793572545125318</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.6064339942998</v>
+        <v>28.46947667459214</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.2803920678771</v>
+        <v>16.67851679904454</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.783768820138278</v>
+        <v>9.447484454820497</v>
       </c>
       <c r="E8">
-        <v>9.733791610765547</v>
+        <v>15.88347801619955</v>
       </c>
       <c r="F8">
-        <v>25.24607196991895</v>
+        <v>37.65235688856502</v>
       </c>
       <c r="G8">
-        <v>2.118041027361986</v>
+        <v>3.685381520275082</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.265446330147575</v>
+        <v>11.77942956308864</v>
       </c>
       <c r="K8">
-        <v>13.00331769969591</v>
+        <v>9.397314181674588</v>
       </c>
       <c r="L8">
-        <v>6.448970918330642</v>
+        <v>8.848485939183034</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.56207693354157</v>
+        <v>28.35347885453244</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.80546921131254</v>
+        <v>16.95019468745924</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.968012003480359</v>
+        <v>9.437918019530542</v>
       </c>
       <c r="E9">
-        <v>9.550810280256309</v>
+        <v>15.7875628305825</v>
       </c>
       <c r="F9">
-        <v>25.60703292194747</v>
+        <v>37.45424406827942</v>
       </c>
       <c r="G9">
-        <v>2.105605594725868</v>
+        <v>3.680815756367495</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.086997647205803</v>
+        <v>11.71722002461352</v>
       </c>
       <c r="K9">
-        <v>14.66628351227125</v>
+        <v>10.01500212996287</v>
       </c>
       <c r="L9">
-        <v>7.266036311448826</v>
+        <v>8.963062911188825</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.59461982947778</v>
+        <v>28.16944929221953</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.85857175779597</v>
+        <v>17.16041899668197</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.110913202689295</v>
+        <v>9.436265950642543</v>
       </c>
       <c r="E10">
-        <v>9.434276366289399</v>
+        <v>15.72539966578729</v>
       </c>
       <c r="F10">
-        <v>25.97920197812685</v>
+        <v>37.34640953846034</v>
       </c>
       <c r="G10">
-        <v>2.096903742544329</v>
+        <v>3.677770694999479</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.96257681618467</v>
+        <v>11.67571150247202</v>
       </c>
       <c r="K10">
-        <v>15.77976639819349</v>
+        <v>10.4495197421763</v>
       </c>
       <c r="L10">
-        <v>7.814072819295531</v>
+        <v>9.050987646895441</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.69939196606442</v>
+        <v>28.06083628840675</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.32175517301636</v>
+        <v>17.25806132844628</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.177412354019841</v>
+        <v>9.436672167523204</v>
       </c>
       <c r="E11">
-        <v>9.385333235699388</v>
+        <v>15.69891345370418</v>
       </c>
       <c r="F11">
-        <v>26.17326564236907</v>
+        <v>37.30557245419568</v>
       </c>
       <c r="G11">
-        <v>2.093030003073331</v>
+        <v>3.676451908272782</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.907334630070475</v>
+        <v>11.65773093458005</v>
       </c>
       <c r="K11">
-        <v>16.26262488879921</v>
+        <v>10.64212838357241</v>
       </c>
       <c r="L11">
-        <v>8.051946677985477</v>
+        <v>9.091698591099636</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.7663135614971</v>
+        <v>28.01722164535341</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.4947908364442</v>
+        <v>17.29529889351317</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.202796115616048</v>
+        <v>9.436991554243843</v>
       </c>
       <c r="E12">
-        <v>9.367401758711567</v>
+        <v>15.6891407631967</v>
       </c>
       <c r="F12">
-        <v>26.25042773964354</v>
+        <v>37.29129200298416</v>
       </c>
       <c r="G12">
-        <v>2.091574488399843</v>
+        <v>3.675962017596288</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.886603293913105</v>
+        <v>11.65105120578836</v>
       </c>
       <c r="K12">
-        <v>16.44206590755546</v>
+        <v>10.71427274813083</v>
       </c>
       <c r="L12">
-        <v>8.140378704693175</v>
+        <v>9.107208522586713</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.79456231921667</v>
+        <v>28.00154070700481</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.45763059754631</v>
+        <v>17.28726786764908</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.197320483104296</v>
+        <v>9.436915420497931</v>
       </c>
       <c r="E13">
-        <v>9.371236551657745</v>
+        <v>15.69123406414722</v>
       </c>
       <c r="F13">
-        <v>26.23364434104516</v>
+        <v>37.29431488149689</v>
       </c>
       <c r="G13">
-        <v>2.091887466483971</v>
+        <v>3.676067102313302</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.891059934395878</v>
+        <v>11.65248407111009</v>
       </c>
       <c r="K13">
-        <v>16.40357155150803</v>
+        <v>10.69877138492024</v>
       </c>
       <c r="L13">
-        <v>8.121406454827843</v>
+        <v>9.103864164390776</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.78834698184103</v>
+        <v>28.004880714087</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.33603863650981</v>
+        <v>17.26111977704278</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.179496714700469</v>
+        <v>9.436695131046763</v>
       </c>
       <c r="E14">
-        <v>9.383845829832502</v>
+        <v>15.69810430029612</v>
       </c>
       <c r="F14">
-        <v>26.17953954636148</v>
+        <v>37.30437386016962</v>
       </c>
       <c r="G14">
-        <v>2.092910033598366</v>
+        <v>3.676411414439681</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.905625333474967</v>
+        <v>11.657178804694</v>
       </c>
       <c r="K14">
-        <v>16.27745587556165</v>
+        <v>10.64807997662919</v>
       </c>
       <c r="L14">
-        <v>8.059255008857177</v>
+        <v>9.092972779161865</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.76857856129454</v>
+        <v>28.01591482091198</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.26125047134218</v>
+        <v>17.24513671236767</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.168605075348069</v>
+        <v>9.436581730038634</v>
       </c>
       <c r="E15">
-        <v>9.391648335914795</v>
+        <v>15.70234597659856</v>
       </c>
       <c r="F15">
-        <v>26.14688057364732</v>
+        <v>37.31068947707892</v>
       </c>
       <c r="G15">
-        <v>2.093537843565429</v>
+        <v>3.676623552036518</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.914571273476332</v>
+        <v>11.66007126338246</v>
       </c>
       <c r="K15">
-        <v>16.19976275680148</v>
+        <v>10.61692500160244</v>
       </c>
       <c r="L15">
-        <v>8.020971168908046</v>
+        <v>9.086313408070565</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.75685246366944</v>
+        <v>28.02278232080105</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.82797495016713</v>
+        <v>17.15407603202288</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.106596272661024</v>
+        <v>9.436262622787162</v>
       </c>
       <c r="E16">
-        <v>9.43755822375058</v>
+        <v>15.72716660909674</v>
       </c>
       <c r="F16">
-        <v>25.96702760386989</v>
+        <v>37.34924387325121</v>
       </c>
       <c r="G16">
-        <v>2.097158538861971</v>
+        <v>3.677858213477937</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.966213703516503</v>
+        <v>11.67690467429577</v>
       </c>
       <c r="K16">
-        <v>15.74773365170027</v>
+        <v>10.43682485740312</v>
       </c>
       <c r="L16">
-        <v>7.798296910985616</v>
+        <v>9.048340680736411</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.69541782576961</v>
+        <v>28.06380335526101</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.55804535486908</v>
+        <v>17.098709368382</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.068929079584482</v>
+        <v>9.436362750367621</v>
       </c>
       <c r="E17">
-        <v>9.466776337157999</v>
+        <v>15.74285180986994</v>
       </c>
       <c r="F17">
-        <v>25.86311878580049</v>
+        <v>37.37500196327464</v>
       </c>
       <c r="G17">
-        <v>2.099400875212516</v>
+        <v>3.678632618341636</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.998237097396196</v>
+        <v>11.68746201254459</v>
       </c>
       <c r="K17">
-        <v>15.46436043535683</v>
+        <v>10.32499595753458</v>
       </c>
       <c r="L17">
-        <v>7.658762830617952</v>
+        <v>9.025222019428277</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.66276088142909</v>
+        <v>28.09045373455767</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.40129780862474</v>
+        <v>17.06705475706789</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.047405149651172</v>
+        <v>9.436529372843401</v>
       </c>
       <c r="E18">
-        <v>9.483963687410919</v>
+        <v>15.75204224356607</v>
       </c>
       <c r="F18">
-        <v>25.80567755895444</v>
+        <v>37.39059069603634</v>
       </c>
       <c r="G18">
-        <v>2.10069863847405</v>
+        <v>3.679084290735402</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.016784348512401</v>
+        <v>11.69361923573836</v>
       </c>
       <c r="K18">
-        <v>15.29914320826216</v>
+        <v>10.26020259053678</v>
       </c>
       <c r="L18">
-        <v>7.577430383793833</v>
+        <v>9.011992488357734</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.64578220091567</v>
+        <v>28.10632758155556</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.34797239314607</v>
+        <v>17.05637062692294</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.040142166723171</v>
+        <v>9.436604541829743</v>
       </c>
       <c r="E19">
-        <v>9.48984811348021</v>
+        <v>15.75518296418591</v>
       </c>
       <c r="F19">
-        <v>25.78662458816756</v>
+        <v>37.39600153130119</v>
       </c>
       <c r="G19">
-        <v>2.101139441773161</v>
+        <v>3.679238295018394</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.023086378421532</v>
+        <v>11.69571856837127</v>
       </c>
       <c r="K19">
-        <v>15.24282101479192</v>
+        <v>10.23818563567515</v>
       </c>
       <c r="L19">
-        <v>7.549707927862783</v>
+        <v>9.007525098733051</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.6403392655418</v>
+        <v>28.11179578389115</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.58693478489211</v>
+        <v>17.10458368517386</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.072924291315482</v>
+        <v>9.43634081375064</v>
       </c>
       <c r="E20">
-        <v>9.463626377636395</v>
+        <v>15.74116463615197</v>
       </c>
       <c r="F20">
-        <v>25.87393864848091</v>
+        <v>37.37217991493306</v>
       </c>
       <c r="G20">
-        <v>2.099161349197005</v>
+        <v>3.678549534573375</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.994814933308804</v>
+        <v>11.68632938092365</v>
       </c>
       <c r="K20">
-        <v>15.49475668793585</v>
+        <v>10.33694971305826</v>
       </c>
       <c r="L20">
-        <v>7.673727877010171</v>
+        <v>9.027676097469014</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.66604948632235</v>
+        <v>28.08756031089765</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.37181777176327</v>
+        <v>17.26879319326472</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.184726605078047</v>
+        <v>9.436755349740038</v>
       </c>
       <c r="E21">
-        <v>9.380125691676408</v>
+        <v>15.69607937386177</v>
       </c>
       <c r="F21">
-        <v>26.19533084060762</v>
+        <v>37.30138715564365</v>
       </c>
       <c r="G21">
-        <v>2.092609378496464</v>
+        <v>3.676310024023999</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.901342090748519</v>
+        <v>11.65579634778338</v>
       </c>
       <c r="K21">
-        <v>16.31459155037943</v>
+        <v>10.66299126709501</v>
       </c>
       <c r="L21">
-        <v>8.077555048521818</v>
+        <v>9.096169375837363</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.77430504260509</v>
+        <v>28.01265116128661</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.87099450436996</v>
+        <v>17.37763130878027</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.258967585869578</v>
+        <v>9.437990823227544</v>
       </c>
       <c r="E22">
-        <v>9.329072324660313</v>
+        <v>15.66811161688694</v>
       </c>
       <c r="F22">
-        <v>26.42684471810032</v>
+        <v>37.26201998801207</v>
       </c>
       <c r="G22">
-        <v>2.088393243814273</v>
+        <v>3.67490175672341</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.841342391326541</v>
+        <v>11.63659360895259</v>
       </c>
       <c r="K22">
-        <v>16.83054737780941</v>
+        <v>10.87143374958704</v>
       </c>
       <c r="L22">
-        <v>8.331889830064599</v>
+        <v>9.141474880051893</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.8620632262388</v>
+        <v>27.9685613589433</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.60585723064557</v>
+        <v>17.31941234065226</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.219240644712794</v>
+        <v>9.437243490376245</v>
       </c>
       <c r="E23">
-        <v>9.35599244545589</v>
+        <v>15.68290167200375</v>
       </c>
       <c r="F23">
-        <v>26.30128141071323</v>
+        <v>37.28239906352433</v>
       </c>
       <c r="G23">
-        <v>2.090637718812016</v>
+        <v>3.675648323391648</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.873268182019878</v>
+        <v>11.64677381621332</v>
       </c>
       <c r="K23">
-        <v>16.55698729739129</v>
+        <v>10.76062909302471</v>
       </c>
       <c r="L23">
-        <v>8.197023421577224</v>
+        <v>9.117247974763739</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.81362388484237</v>
+        <v>27.9916469580503</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.57387873089796</v>
+        <v>17.10192735500197</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.071117645715294</v>
+        <v>9.436350391537276</v>
       </c>
       <c r="E24">
-        <v>9.465049262512121</v>
+        <v>15.74192686908522</v>
       </c>
       <c r="F24">
-        <v>25.86903984155134</v>
+        <v>37.37345333327796</v>
       </c>
       <c r="G24">
-        <v>2.099269612017285</v>
+        <v>3.678587076629184</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.99636166772577</v>
+        <v>11.68684117055552</v>
       </c>
       <c r="K24">
-        <v>15.48102171260133</v>
+        <v>10.33154697704201</v>
       </c>
       <c r="L24">
-        <v>7.666965644354505</v>
+        <v>9.02656641593191</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.66455712361471</v>
+        <v>28.0888667078138</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.40421553582208</v>
+        <v>16.87473286044637</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.916795627919486</v>
+        <v>9.43955869167843</v>
       </c>
       <c r="E25">
-        <v>9.597226128245021</v>
+        <v>15.81204842680163</v>
       </c>
       <c r="F25">
-        <v>25.49113693418892</v>
+        <v>37.50122572101429</v>
       </c>
       <c r="G25">
-        <v>2.108890390888946</v>
+        <v>3.681996347287273</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.134068846591857</v>
+        <v>11.73330945418084</v>
       </c>
       <c r="K25">
-        <v>14.23532385346923</v>
+        <v>9.850972480878639</v>
       </c>
       <c r="L25">
-        <v>7.054123347263948</v>
+        <v>8.931375203369427</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.57219258581796</v>
+        <v>28.21457163275858</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_254/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_254/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.71471856507537</v>
+        <v>13.49829846468908</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.445537643816754</v>
+        <v>5.808300229765742</v>
       </c>
       <c r="E2">
-        <v>15.86926128448355</v>
+        <v>9.706500492677305</v>
       </c>
       <c r="F2">
-        <v>37.62063430798291</v>
+        <v>25.28417424439972</v>
       </c>
       <c r="G2">
-        <v>3.684714637473324</v>
+        <v>2.116269380206465</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.77034564934962</v>
+        <v>7.239985168593662</v>
       </c>
       <c r="K2">
-        <v>9.484535063601168</v>
+        <v>13.24547580978427</v>
       </c>
       <c r="L2">
-        <v>8.863847523803175</v>
+        <v>6.567837421689064</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.32498482443728</v>
+        <v>18.55784959062719</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.61125011914996</v>
+        <v>12.85924730689186</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.451859020083331</v>
+        <v>5.738193085522965</v>
       </c>
       <c r="E3">
-        <v>15.91153393480013</v>
+        <v>9.787765298071092</v>
       </c>
       <c r="F3">
-        <v>37.71730575754095</v>
+        <v>25.18578860824578</v>
       </c>
       <c r="G3">
-        <v>3.686687749209808</v>
+        <v>2.121467642432941</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.79721946560308</v>
+        <v>7.314720632338275</v>
       </c>
       <c r="K3">
-        <v>9.229893326226893</v>
+        <v>12.53002823860291</v>
       </c>
       <c r="L3">
-        <v>8.81983037974919</v>
+        <v>6.216769846825051</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.41091671872402</v>
+        <v>18.57896181653972</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.55031555506875</v>
+        <v>12.45569923343168</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.456863924032866</v>
+        <v>5.696904906019109</v>
       </c>
       <c r="E4">
-        <v>15.93922085408454</v>
+        <v>9.841143094004686</v>
       </c>
       <c r="F4">
-        <v>37.78440960724957</v>
+        <v>25.14510683864336</v>
       </c>
       <c r="G4">
-        <v>3.687964181293232</v>
+        <v>2.124760886202401</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.81459967364422</v>
+        <v>7.362107871740339</v>
       </c>
       <c r="K4">
-        <v>9.071013392392608</v>
+        <v>12.0691278672019</v>
       </c>
       <c r="L4">
-        <v>8.793713857152131</v>
+        <v>5.990805520297431</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.46914371865661</v>
+        <v>18.60625108136819</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.52615780228728</v>
+        <v>12.28865972857644</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.459186625627352</v>
+        <v>5.680531915094785</v>
       </c>
       <c r="E5">
-        <v>15.95093962524227</v>
+        <v>9.863759765613985</v>
       </c>
       <c r="F5">
-        <v>37.81369993344803</v>
+        <v>25.13334566127193</v>
       </c>
       <c r="G5">
-        <v>3.688500716914712</v>
+        <v>2.126128999172209</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.82190405258698</v>
+        <v>7.381801398813479</v>
       </c>
       <c r="K5">
-        <v>9.005726698227214</v>
+        <v>11.87595433989919</v>
       </c>
       <c r="L5">
-        <v>8.783307293418313</v>
+        <v>5.896147526151744</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.49424384532512</v>
+        <v>18.62084344445037</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.5221877000414</v>
+        <v>12.26077352150882</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.459589428461683</v>
+        <v>5.677840791174219</v>
       </c>
       <c r="E6">
-        <v>15.95291188186337</v>
+        <v>9.867567183429596</v>
       </c>
       <c r="F6">
-        <v>37.81868094408778</v>
+        <v>25.13167934338014</v>
       </c>
       <c r="G6">
-        <v>3.688590799013074</v>
+        <v>2.126357765218867</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.82313035394534</v>
+        <v>7.385094783391318</v>
       </c>
       <c r="K6">
-        <v>8.994856023019741</v>
+        <v>11.84355754596276</v>
       </c>
       <c r="L6">
-        <v>8.78159375979731</v>
+        <v>5.880275495234765</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.49849451861067</v>
+        <v>18.62347237033711</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.54998700098157</v>
+        <v>12.45345665601722</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.45689410146907</v>
+        <v>5.696682249976146</v>
       </c>
       <c r="E7">
-        <v>15.93937713064186</v>
+        <v>9.841444622221893</v>
       </c>
       <c r="F7">
-        <v>37.78479675610444</v>
+        <v>25.14492891372389</v>
       </c>
       <c r="G7">
-        <v>3.687971350813648</v>
+        <v>2.124779230681155</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.81469728414715</v>
+        <v>7.362371907844939</v>
       </c>
       <c r="K7">
-        <v>9.070134978742562</v>
+        <v>12.06654421103382</v>
       </c>
       <c r="L7">
-        <v>8.793572545125318</v>
+        <v>5.989539295857223</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.46947667459214</v>
+        <v>18.60643399429964</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.67851679904454</v>
+        <v>13.28039206787708</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.447484454820497</v>
+        <v>5.783768820138184</v>
       </c>
       <c r="E8">
-        <v>15.88347801619955</v>
+        <v>9.733791610765474</v>
       </c>
       <c r="F8">
-        <v>37.65235688856502</v>
+        <v>25.24607196991868</v>
       </c>
       <c r="G8">
-        <v>3.685381520275082</v>
+        <v>2.118041027361853</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.77942956308864</v>
+        <v>7.265446330147605</v>
       </c>
       <c r="K8">
-        <v>9.397314181674588</v>
+        <v>13.00331769969594</v>
       </c>
       <c r="L8">
-        <v>8.848485939183034</v>
+        <v>6.448970918330704</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.35347885453244</v>
+        <v>18.56207693354139</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.95019468745924</v>
+        <v>14.80546921131252</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.437918019530542</v>
+        <v>5.968012003480442</v>
       </c>
       <c r="E9">
-        <v>15.7875628305825</v>
+        <v>9.550810280256366</v>
       </c>
       <c r="F9">
-        <v>37.45424406827942</v>
+        <v>25.6070329219475</v>
       </c>
       <c r="G9">
-        <v>3.680815756367495</v>
+        <v>2.105605594725734</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.71722002461352</v>
+        <v>7.086997647205803</v>
       </c>
       <c r="K9">
-        <v>10.01500212996287</v>
+        <v>14.66628351227125</v>
       </c>
       <c r="L9">
-        <v>8.963062911188825</v>
+        <v>7.266036311448818</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.16944929221953</v>
+        <v>18.59461982947778</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.16041899668197</v>
+        <v>15.85857175779593</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.436265950642543</v>
+        <v>6.11091320268939</v>
       </c>
       <c r="E10">
-        <v>15.72539966578729</v>
+        <v>9.434276366289463</v>
       </c>
       <c r="F10">
-        <v>37.34640953846034</v>
+        <v>25.97920197812672</v>
       </c>
       <c r="G10">
-        <v>3.677770694999479</v>
+        <v>2.096903742544596</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.67571150247202</v>
+        <v>6.962576816184638</v>
       </c>
       <c r="K10">
-        <v>10.4495197421763</v>
+        <v>15.7797663981935</v>
       </c>
       <c r="L10">
-        <v>9.050987646895441</v>
+        <v>7.814072819295545</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.06083628840675</v>
+        <v>18.69939196606429</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.25806132844628</v>
+        <v>16.32175517301638</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.436672167523204</v>
+        <v>6.177412354019663</v>
       </c>
       <c r="E11">
-        <v>15.69891345370418</v>
+        <v>9.385333235699328</v>
       </c>
       <c r="F11">
-        <v>37.30557245419568</v>
+        <v>26.17326564236886</v>
       </c>
       <c r="G11">
-        <v>3.676451908272782</v>
+        <v>2.093030003073065</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.65773093458005</v>
+        <v>6.907334630070504</v>
       </c>
       <c r="K11">
-        <v>10.64212838357241</v>
+        <v>16.26262488879927</v>
       </c>
       <c r="L11">
-        <v>9.091698591099636</v>
+        <v>8.051946677985535</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.01722164535341</v>
+        <v>18.76631356149697</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.29529889351317</v>
+        <v>16.49479083644423</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.436991554243843</v>
+        <v>6.202796115616101</v>
       </c>
       <c r="E12">
-        <v>15.6891407631967</v>
+        <v>9.367401758711761</v>
       </c>
       <c r="F12">
-        <v>37.29129200298416</v>
+        <v>26.25042773964347</v>
       </c>
       <c r="G12">
-        <v>3.675962017596288</v>
+        <v>2.09157448839971</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.65105120578836</v>
+        <v>6.886603293913273</v>
       </c>
       <c r="K12">
-        <v>10.71427274813083</v>
+        <v>16.44206590755549</v>
       </c>
       <c r="L12">
-        <v>9.107208522586713</v>
+        <v>8.140378704693164</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.00154070700481</v>
+        <v>18.7945623192166</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.28726786764908</v>
+        <v>16.45763059754631</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.436915420497931</v>
+        <v>6.197320483104303</v>
       </c>
       <c r="E13">
-        <v>15.69123406414722</v>
+        <v>9.371236551657807</v>
       </c>
       <c r="F13">
-        <v>37.29431488149689</v>
+        <v>26.23364434104519</v>
       </c>
       <c r="G13">
-        <v>3.676067102313302</v>
+        <v>2.091887466483971</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.65248407111009</v>
+        <v>6.891059934395943</v>
       </c>
       <c r="K13">
-        <v>10.69877138492024</v>
+        <v>16.40357155150798</v>
       </c>
       <c r="L13">
-        <v>9.103864164390776</v>
+        <v>8.121406454827817</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.004880714087</v>
+        <v>18.78834698184106</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.26111977704278</v>
+        <v>16.33603863650978</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.436695131046763</v>
+        <v>6.179496714700562</v>
       </c>
       <c r="E14">
-        <v>15.69810430029612</v>
+        <v>9.38384582983263</v>
       </c>
       <c r="F14">
-        <v>37.30437386016962</v>
+        <v>26.17953954636141</v>
       </c>
       <c r="G14">
-        <v>3.676411414439681</v>
+        <v>2.092910033598232</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.657178804694</v>
+        <v>6.905625333474999</v>
       </c>
       <c r="K14">
-        <v>10.64807997662919</v>
+        <v>16.27745587556173</v>
       </c>
       <c r="L14">
-        <v>9.092972779161865</v>
+        <v>8.059255008857203</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.01591482091198</v>
+        <v>18.76857856129444</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.24513671236767</v>
+        <v>16.26125047134225</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.436581730038634</v>
+        <v>6.168605075348139</v>
       </c>
       <c r="E15">
-        <v>15.70234597659856</v>
+        <v>9.391648335914866</v>
       </c>
       <c r="F15">
-        <v>37.31068947707892</v>
+        <v>26.14688057364726</v>
       </c>
       <c r="G15">
-        <v>3.676623552036518</v>
+        <v>2.093537843565428</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.66007126338246</v>
+        <v>6.914571273476398</v>
       </c>
       <c r="K15">
-        <v>10.61692500160244</v>
+        <v>16.19976275680149</v>
       </c>
       <c r="L15">
-        <v>9.086313408070565</v>
+        <v>8.020971168908085</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.02278232080105</v>
+        <v>18.75685246366939</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.15407603202288</v>
+        <v>15.82797495016709</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.436262622787162</v>
+        <v>6.106596272661024</v>
       </c>
       <c r="E16">
-        <v>15.72716660909674</v>
+        <v>9.437558223750523</v>
       </c>
       <c r="F16">
-        <v>37.34924387325121</v>
+        <v>25.96702760386973</v>
       </c>
       <c r="G16">
-        <v>3.677858213477937</v>
+        <v>2.097158538861837</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.67690467429577</v>
+        <v>6.966213703516439</v>
       </c>
       <c r="K16">
-        <v>10.43682485740312</v>
+        <v>15.7477336517003</v>
       </c>
       <c r="L16">
-        <v>9.048340680736411</v>
+        <v>7.798296910985656</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.06380335526101</v>
+        <v>18.69541782576949</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.098709368382</v>
+        <v>15.55804535486907</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.436362750367621</v>
+        <v>6.068929079584588</v>
       </c>
       <c r="E17">
-        <v>15.74285180986994</v>
+        <v>9.46677633715807</v>
       </c>
       <c r="F17">
-        <v>37.37500196327464</v>
+        <v>25.86311878580025</v>
       </c>
       <c r="G17">
-        <v>3.678632618341636</v>
+        <v>2.099400875212917</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.68746201254459</v>
+        <v>6.998237097396233</v>
       </c>
       <c r="K17">
-        <v>10.32499595753458</v>
+        <v>15.46436043535686</v>
       </c>
       <c r="L17">
-        <v>9.025222019428277</v>
+        <v>7.658762830617944</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.09045373455767</v>
+        <v>18.66276088142885</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.06705475706789</v>
+        <v>15.4012978086247</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.436529372843401</v>
+        <v>6.047405149651092</v>
       </c>
       <c r="E18">
-        <v>15.75204224356607</v>
+        <v>9.483963687410862</v>
       </c>
       <c r="F18">
-        <v>37.39059069603634</v>
+        <v>25.80567755895425</v>
       </c>
       <c r="G18">
-        <v>3.679084290735402</v>
+        <v>2.100698638473649</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.69361923573836</v>
+        <v>7.016784348512398</v>
       </c>
       <c r="K18">
-        <v>10.26020259053678</v>
+        <v>15.29914320826221</v>
       </c>
       <c r="L18">
-        <v>9.011992488357734</v>
+        <v>7.577430383793901</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.10632758155556</v>
+        <v>18.64578220091558</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.05637062692294</v>
+        <v>15.34797239314604</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.436604541829743</v>
+        <v>6.040142166723257</v>
       </c>
       <c r="E19">
-        <v>15.75518296418591</v>
+        <v>9.489848113480267</v>
       </c>
       <c r="F19">
-        <v>37.39600153130119</v>
+        <v>25.78662458816749</v>
       </c>
       <c r="G19">
-        <v>3.679238295018394</v>
+        <v>2.101139441773294</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.69571856837127</v>
+        <v>7.023086378421565</v>
       </c>
       <c r="K19">
-        <v>10.23818563567515</v>
+        <v>15.24282101479198</v>
       </c>
       <c r="L19">
-        <v>9.007525098733051</v>
+        <v>7.549707927862761</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.11179578389115</v>
+        <v>18.64033926554172</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.10458368517386</v>
+        <v>15.58693478489209</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.43634081375064</v>
+        <v>6.07292429131553</v>
       </c>
       <c r="E20">
-        <v>15.74116463615197</v>
+        <v>9.463626377636519</v>
       </c>
       <c r="F20">
-        <v>37.37217991493306</v>
+        <v>25.87393864848086</v>
       </c>
       <c r="G20">
-        <v>3.678549534573375</v>
+        <v>2.099161349197138</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.68632938092365</v>
+        <v>6.994814933308838</v>
       </c>
       <c r="K20">
-        <v>10.33694971305826</v>
+        <v>15.4947566879359</v>
       </c>
       <c r="L20">
-        <v>9.027676097469014</v>
+        <v>7.673727877010174</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.08756031089765</v>
+        <v>18.6660494863223</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.26879319326472</v>
+        <v>16.37181777176328</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.436755349740038</v>
+        <v>6.184726605078155</v>
       </c>
       <c r="E21">
-        <v>15.69607937386177</v>
+        <v>9.380125691676533</v>
       </c>
       <c r="F21">
-        <v>37.30138715564365</v>
+        <v>26.19533084060745</v>
       </c>
       <c r="G21">
-        <v>3.676310024023999</v>
+        <v>2.092609378496329</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.65579634778338</v>
+        <v>6.901342090748554</v>
       </c>
       <c r="K21">
-        <v>10.66299126709501</v>
+        <v>16.31459155037948</v>
       </c>
       <c r="L21">
-        <v>9.096169375837363</v>
+        <v>8.077555048521875</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.01265116128661</v>
+        <v>18.77430504260489</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.37763130878027</v>
+        <v>16.87099450436994</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.437990823227544</v>
+        <v>6.258967585869622</v>
       </c>
       <c r="E22">
-        <v>15.66811161688694</v>
+        <v>9.329072324660251</v>
       </c>
       <c r="F22">
-        <v>37.26201998801207</v>
+        <v>26.4268447181002</v>
       </c>
       <c r="G22">
-        <v>3.67490175672341</v>
+        <v>2.088393243814409</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.63659360895259</v>
+        <v>6.841342391326475</v>
       </c>
       <c r="K22">
-        <v>10.87143374958704</v>
+        <v>16.83054737780948</v>
       </c>
       <c r="L22">
-        <v>9.141474880051893</v>
+        <v>8.33188983006462</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.9685613589433</v>
+        <v>18.8620632262387</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.31941234065226</v>
+        <v>16.6058572306456</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.437243490376245</v>
+        <v>6.219240644712801</v>
       </c>
       <c r="E23">
-        <v>15.68290167200375</v>
+        <v>9.355992445455955</v>
       </c>
       <c r="F23">
-        <v>37.28239906352433</v>
+        <v>26.3012814107132</v>
       </c>
       <c r="G23">
-        <v>3.675648323391648</v>
+        <v>2.090637718812017</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.64677381621332</v>
+        <v>6.873268182019944</v>
       </c>
       <c r="K23">
-        <v>10.76062909302471</v>
+        <v>16.55698729739129</v>
       </c>
       <c r="L23">
-        <v>9.117247974763739</v>
+        <v>8.197023421577216</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.9916469580503</v>
+        <v>18.81362388484235</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.10192735500197</v>
+        <v>15.57387873089798</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.436350391537276</v>
+        <v>6.071117645715375</v>
       </c>
       <c r="E24">
-        <v>15.74192686908522</v>
+        <v>9.465049262512304</v>
       </c>
       <c r="F24">
-        <v>37.37345333327796</v>
+        <v>25.86903984155131</v>
       </c>
       <c r="G24">
-        <v>3.678587076629184</v>
+        <v>2.099269612017018</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.68684117055552</v>
+        <v>6.996361667725933</v>
       </c>
       <c r="K24">
-        <v>10.33154697704201</v>
+        <v>15.4810217126014</v>
       </c>
       <c r="L24">
-        <v>9.02656641593191</v>
+        <v>7.666965644354505</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.0888667078138</v>
+        <v>18.66455712361465</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.87473286044637</v>
+        <v>14.40421553582208</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.43955869167843</v>
+        <v>5.91679562791953</v>
       </c>
       <c r="E25">
-        <v>15.81204842680163</v>
+        <v>9.597226128245143</v>
       </c>
       <c r="F25">
-        <v>37.50122572101429</v>
+        <v>25.49113693418877</v>
       </c>
       <c r="G25">
-        <v>3.681996347287273</v>
+        <v>2.108890390888944</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.73330945418084</v>
+        <v>7.134068846591957</v>
       </c>
       <c r="K25">
-        <v>9.850972480878639</v>
+        <v>14.23532385346929</v>
       </c>
       <c r="L25">
-        <v>8.931375203369427</v>
+        <v>7.054123347263968</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.21457163275858</v>
+        <v>18.57219258581783</v>
       </c>
     </row>
   </sheetData>
